--- a/medicine/Enfance/Henry_Winterfeld/Henry_Winterfeld.xlsx
+++ b/medicine/Enfance/Henry_Winterfeld/Henry_Winterfeld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Winterfeld, né le 9 avril 1901 à Hambourg (Allemagne) et mort le 27 janvier 1990 à Machias, dans le Maine aux États-Unis, est un écrivain allemand de romans pour la jeunesse ayant écrit sous le pseudonyme de Manfred Michael.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Winterfeld est né le 9 avril 1901 à Hambourg (Allemagne) et mort le 27 janvier 1990 aux États-Unis. Il a pour père Max Winterfeld (alias Jean Gilbert), compositeur et chef d'orchestre allemand. Son frère, Robert David Winterfeld (alias Robert Gilbert), était également compositeur.
 Henry Winterfeld fait des études musicales au conservatoire Stern de Berlin avec Claudio Arrau. Il travaille comme pianiste et écrivain de scénarios et de pièces de théâtre. Dans la liste des œuvres du musicien, pianiste, compositeur et directeur de théâtre Rudolf Nelson (1878-1960), on trouve Henry Winterfeld aux côtés de Friedrich Hollaender, Hans H. Zerlett, Fritz Rotter et Franz Molnar (vraisemblablement Ferenc Molnár), on le retrouve en tant que coauteur de la revue Tombola (1929), Hans Albers joue d'ailleurs en 1923 au Nelson Theater Berlin dans la revue de variété Tombola.
@@ -550,7 +564,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Enfants de Timpelbach (Timpetill, 1937)
 Publié en France pour la première fois en 1957 aux éditions Hachette dans la collection Idéal-Bibliothèque no 125.
@@ -596,7 +612,9 @@
           <t>Adaptation au cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2008 : Les Enfants de Timpelbach, film français de Nicolas Bary avec, dans les seconds rôles, Carole Bouquet et Gérard Depardieu.
 Un scénario est en cours d’écriture[évasif] pour le roman Caius, der Lausbub aus dem alten Rom (littéralement, Caius, le garnement de la Rome antique). Le producteur est Ulrich Limmer et la réalisation de Marcus H. Rosenmüller. Ceci est annoncé dans Film News Bayern (6/2007 Octobre S. 28).</t>
